--- a/pred_ohlcv/54_21/2020-01-13 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-69308.7645</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-81535.0432</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-60182.3011</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-81380.54509999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-57107.36599999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-147933.2638169512</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-462141.0754169513</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-442998.6234169513</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-430713.6427169513</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-466015.0692169513</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-456799.6466169513</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-456769.6466169513</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-456067.3557169513</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-456057.3557169513</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-458342.3557169513</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-458332.3557169513</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-458332.3557169513</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-458342.3557169513</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-468567.3557169513</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-464567.3557169513</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-464567.3557169513</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-556646.3399169514</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-543795.6363169515</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-568992.1701169515</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-568992.1701169515</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-569418.8109169514</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-575592.0662169515</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-634529.8235169514</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-69308.7645</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-81535.0432</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-60182.3011</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-81380.54509999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-140403.7594169512</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-147933.2638169512</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-456769.6466169513</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-456067.3557169513</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-456057.3557169513</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-458342.3557169513</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-458332.3557169513</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-458332.3557169513</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-458342.3557169513</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-468567.3557169513</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-464567.3557169513</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-464567.3557169513</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-543795.6363169515</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-568992.1701169515</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-568992.1701169515</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-569418.8109169514</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-569297.7249169514</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-575613.6257169514</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-575773.3972169515</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-634529.8235169514</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
